--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/samishra_adobe_com/Documents/franklin/enablement/franklin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048F2E958628A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0563AB88-4293-44F2-B00C-FCF53B0BFD50}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048F2E958628A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2168318-6FAE-4AC6-B8A3-66DB5077EA7A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>/code</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
   </si>
 </sst>
 </file>
@@ -100,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,34 +375,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{82F8DCC9-40C7-4A8F-B681-036E82AC9B87}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0F17BC94-FCA3-4247-8735-451E36BEBB50}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{82F8DCC9-40C7-4A8F-B681-036E82AC9B87}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0F17BC94-FCA3-4247-8735-451E36BEBB50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
